--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCAC8FE-559F-4C71-A13D-BD8B7F84C239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8D5E14-8E98-4FD2-AA1C-1B81279A7DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D51774B-7BF4-485E-9BC6-F00039662D45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>CASEN</t>
   </si>
@@ -258,10 +258,13 @@
     <t>Fecha Actualización</t>
   </si>
   <si>
-    <t>Christian, Victor</t>
-  </si>
-  <si>
     <t>Hector</t>
+  </si>
+  <si>
+    <t>Christian, Victor, Ian</t>
+  </si>
+  <si>
+    <t>En sub-categoría son los nombres de origen</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,6 +360,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951C08C-CEBF-4D81-8E38-C38F1112DDCC}">
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +808,7 @@
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -847,6 +854,9 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
+      <c r="F2" s="8">
+        <v>44106</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -861,6 +871,9 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
+      <c r="F3" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -869,9 +882,14 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
         <v>38</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44104</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -887,6 +905,9 @@
       <c r="E5" t="s">
         <v>38</v>
       </c>
+      <c r="F5" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -901,6 +922,9 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
+      <c r="F6" s="8">
+        <v>44104</v>
+      </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
@@ -918,6 +942,9 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
+      <c r="F7" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -932,6 +959,9 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
+      <c r="F8" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -946,6 +976,9 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -960,6 +993,9 @@
       <c r="E10" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -974,6 +1010,9 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -986,6 +1025,9 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -998,6 +1040,9 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
+      <c r="F13" s="8">
+        <v>44104</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1050,7 +1095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1064,7 +1109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1077,11 +1122,17 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="8">
+        <v>44131</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>65</v>
       </c>
@@ -1098,7 +1149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
@@ -1107,7 +1158,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
@@ -1116,7 +1167,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1130,7 +1181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1139,7 +1190,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1149,11 +1200,14 @@
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F24" s="8">
+        <v>44129</v>
+      </c>
       <c r="G24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1161,11 +1215,14 @@
         <v>11</v>
       </c>
       <c r="D25" s="3"/>
+      <c r="F25" s="8">
+        <v>44129</v>
+      </c>
       <c r="G25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
@@ -1175,11 +1232,14 @@
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F26" s="8">
+        <v>44129</v>
+      </c>
       <c r="G26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
@@ -1188,7 +1248,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
@@ -1197,7 +1257,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
@@ -1209,7 +1269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1226,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1235,7 +1295,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1372,7 @@
         <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8D5E14-8E98-4FD2-AA1C-1B81279A7DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B8493-BE80-419E-8E3F-554A2CE08805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D51774B-7BF4-485E-9BC6-F00039662D45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>CASEN</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Sistema Nacional de Información Municipal</t>
   </si>
   <si>
-    <t>Listo un xlx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirección Meteorológica de Chile - Servicios Climáticos </t>
   </si>
   <si>
@@ -265,6 +262,27 @@
   </si>
   <si>
     <t>En sub-categoría son los nombres de origen</t>
+  </si>
+  <si>
+    <t>Proyecto GEF</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Archivo xlx</t>
+  </si>
+  <si>
+    <t>Revisión</t>
+  </si>
+  <si>
+    <t>BD Wikipedia</t>
+  </si>
+  <si>
+    <t>BD WIKI</t>
+  </si>
+  <si>
+    <t>Vivian</t>
   </si>
 </sst>
 </file>
@@ -482,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA472F2-80DF-4ED4-AD80-BCF34D3763D1}" name="Tabla1" displayName="Tabla1" ref="B1:I36" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B1:I36" xr:uid="{98A2188B-B7F8-4A16-B651-38456AF619C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA472F2-80DF-4ED4-AD80-BCF34D3763D1}" name="Tabla1" displayName="Tabla1" ref="B1:I37" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B1:I37" xr:uid="{98A2188B-B7F8-4A16-B651-38456AF619C0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6353A81E-80DD-4737-8B25-37AD53D8F541}" name="DATA" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{BCF221E4-5AEE-4F4D-B60C-C796E65E249D}" name="Categoría" dataDxfId="1"/>
@@ -795,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951C08C-CEBF-4D81-8E38-C38F1112DDCC}">
-  <dimension ref="B1:I36"/>
+  <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,33 +838,33 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -860,7 +878,7 @@
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -877,7 +895,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
@@ -894,7 +912,7 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -911,7 +929,7 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
@@ -931,7 +949,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -948,7 +966,7 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -965,7 +983,7 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -982,7 +1000,7 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
@@ -999,7 +1017,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -1016,7 +1034,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
@@ -1046,7 +1064,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -1063,7 +1081,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -1080,7 +1098,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1097,13 +1115,13 @@
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
@@ -1111,7 +1129,7 @@
     </row>
     <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
@@ -1126,32 +1144,32 @@
         <v>44131</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
@@ -1160,30 +1178,30 @@
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
         <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
@@ -1192,7 +1210,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -1209,7 +1227,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>11</v>
@@ -1224,7 +1242,7 @@
     </row>
     <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -1241,7 +1259,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
@@ -1250,16 +1268,24 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -1271,45 +1297,54 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="3"/>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
@@ -1327,7 +1362,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
@@ -1345,19 +1380,19 @@
     </row>
     <row r="35" spans="2:9" ht="39" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
         <v>41</v>
@@ -1365,14 +1400,31 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B8493-BE80-419E-8E3F-554A2CE08805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E2E58-C794-4B4F-991C-13CB0A48393E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D51774B-7BF4-485E-9BC6-F00039662D45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D51774B-7BF4-485E-9BC6-F00039662D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_DATA">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Responsable">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Situación">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
   <si>
     <t>CASEN</t>
   </si>
@@ -255,9 +270,6 @@
     <t>Fecha Actualización</t>
   </si>
   <si>
-    <t>Hector</t>
-  </si>
-  <si>
     <t>Christian, Victor, Ian</t>
   </si>
   <si>
@@ -283,12 +295,27 @@
   </si>
   <si>
     <t>Vivian</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Sin Información</t>
+  </si>
+  <si>
+    <t>Ministerio Trabajo Chile</t>
+  </si>
+  <si>
+    <t>Finalizar con Org Internacionales y No Gubernamentales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +358,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -355,41 +388,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="23">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -402,17 +548,28 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -425,12 +582,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -441,7 +592,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -454,12 +605,114 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -487,7 +740,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C557224-34BA-4452-966C-C54163D8158E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,18 +754,307 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Responsable">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74745607-EC85-4C2C-9A29-A52E3F4546D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Responsable"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7223760" y="0"/>
+              <a:ext cx="5509260" cy="1264920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="DATA 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F69B5B6-20A9-489D-B14E-38B5C135CA0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DATA 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="0"/>
+              <a:ext cx="4305300" cy="1264920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Situación 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DFDB7C-C6BA-4B61-A5D1-5BF602CEB62F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Situación 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4678680" y="30481"/>
+              <a:ext cx="2468880" cy="1150620"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DATA" xr10:uid="{63262C26-950F-4ADF-9BF0-4762C35328ED}" sourceName="DATA">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Situación" xr10:uid="{4B5399EB-AC4C-4DC3-A100-4A1BB5BD2703}" sourceName="Situación">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Responsable" xr10:uid="{B59219BD-D741-47F3-9B16-9C5438C206BD}" sourceName="Responsable">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="6"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="DATA 1" xr10:uid="{93EA20D4-5160-4788-8596-542443F40323}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="3" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Situación 1" xr10:uid="{3D90F78D-CFF4-4624-B2FD-E4FE9DDE53EE}" cache="SegmentaciónDeDatos_Situación" caption="Situación" columnCount="2" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Responsable" xr10:uid="{C510E582-3F6F-4C68-9019-866F37F4E707}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="5" style="SlicerStyleDark5" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA472F2-80DF-4ED4-AD80-BCF34D3763D1}" name="Tabla1" displayName="Tabla1" ref="B1:I37" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B1:I37" xr:uid="{98A2188B-B7F8-4A16-B651-38456AF619C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA472F2-80DF-4ED4-AD80-BCF34D3763D1}" name="Tabla1" displayName="Tabla1" ref="B7:I43" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="B7:I43" xr:uid="{98A2188B-B7F8-4A16-B651-38456AF619C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:I43">
+    <sortCondition descending="1" ref="F7:F43"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6353A81E-80DD-4737-8B25-37AD53D8F541}" name="DATA" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BCF221E4-5AEE-4F4D-B60C-C796E65E249D}" name="Categoría" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{44A886E0-0AD0-4304-891A-071B015AEC19}" name="Sub-Categoría" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{A97C36EC-26F8-42DC-A9C5-31A8A83EE4F9}" name="Situación"/>
-    <tableColumn id="5" xr3:uid="{4906EEEA-8BCA-410D-B90B-B41EBB821EBA}" name="Fecha Actualización"/>
-    <tableColumn id="6" xr3:uid="{8E854FA0-1F7A-48B5-ACE9-697338EAFD6F}" name="Responsable"/>
-    <tableColumn id="7" xr3:uid="{1D644234-12A5-4B86-84F8-0E9BEFBBDD41}" name="Observación 1"/>
-    <tableColumn id="8" xr3:uid="{E459B611-A5E8-47BF-B60D-C19E89292478}" name="Observación 2"/>
+    <tableColumn id="1" xr3:uid="{6353A81E-80DD-4737-8B25-37AD53D8F541}" name="DATA" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BCF221E4-5AEE-4F4D-B60C-C796E65E249D}" name="Categoría" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{44A886E0-0AD0-4304-891A-071B015AEC19}" name="Sub-Categoría" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A97C36EC-26F8-42DC-A9C5-31A8A83EE4F9}" name="Situación" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4906EEEA-8BCA-410D-B90B-B41EBB821EBA}" name="Fecha Actualización" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{8E854FA0-1F7A-48B5-ACE9-697338EAFD6F}" name="Responsable" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1D644234-12A5-4B86-84F8-0E9BEFBBDD41}" name="Observación 1" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E459B611-A5E8-47BF-B60D-C19E89292478}" name="Observación 2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,625 +1357,865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951C08C-CEBF-4D81-8E38-C38F1112DDCC}">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="2" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="8">
-        <v>44106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8">
-        <v>44104</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="8">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44131</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="F23" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="8">
+        <v>44134</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="F25" s="8">
         <v>44129</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>29</v>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F26" s="8">
         <v>44129</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" t="s">
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F31" s="8">
+        <v>44129</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" t="s">
+      <c r="F32" s="8">
+        <v>44106</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" t="s">
+      <c r="F33" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" t="s">
+      <c r="F34" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F35" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s">
-        <v>76</v>
-      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="8">
+        <v>44104</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E8:E43">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Trabajando"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387E2E58-C794-4B4F-991C-13CB0A48393E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0D820-2A6C-4B13-8CCF-3D1322B2BA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D51774B-7BF4-485E-9BC6-F00039662D45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="SegmentaciónDeDatos_Responsable">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Situación">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>CASEN</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Meteorología del Gob. Chile</t>
   </si>
   <si>
-    <t>Meteorología del Gob. Guatemala</t>
-  </si>
-  <si>
     <t>Matricula de Parvularios</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>VIH Sida</t>
   </si>
   <si>
-    <t>Detenidos mensuales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Delitos por meses</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Delitos</t>
   </si>
   <si>
@@ -126,12 +117,6 @@
     <t>Informacion procesos Simces</t>
   </si>
   <si>
-    <t>Datadelitos_por_meses</t>
-  </si>
-  <si>
-    <t>Datadelitos detenidos mensuales</t>
-  </si>
-  <si>
     <t>Diseño Global</t>
   </si>
   <si>
@@ -309,14 +294,68 @@
     <t>Ministerio Trabajo Chile</t>
   </si>
   <si>
-    <t>Finalizar con Org Internacionales y No Gubernamentales</t>
+    <t>https://github.com/Sud-Austral/DATA-MUNI/raw/master/MunicipioFinal.xlsx</t>
+  </si>
+  <si>
+    <t>Link GitHub</t>
+  </si>
+  <si>
+    <t>Fecha Requerimiento</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-LABORAL/tree/main/SIL/Archivos%20Consolidados%20Regional-Comunal</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL/raw/master/CAF.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-EDUCACION/tree/master/Variables%20DataEducacion</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL/raw/master/Human%20Development.xlsx</t>
+  </si>
+  <si>
+    <t>Se solicito no incluir los Paises en este momento</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL/tree/master/Vivian</t>
+  </si>
+  <si>
+    <t>Proyecto GT</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL/raw/master/DataProyectoGT.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO/raw/master/CLIMATOL%C3%93GICO-24-10-2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL</t>
+  </si>
+  <si>
+    <t>INSIVUMETH Guatemala</t>
+  </si>
+  <si>
+    <t>Christian, Hector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Delitos por juzgado por mes</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-DELITO/tree/master/data</t>
+  </si>
+  <si>
+    <t>ConsTotalDelitos1.xlsx</t>
+  </si>
+  <si>
+    <t>ConsTotalDelitos2.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +375,18 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -405,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,11 +485,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -489,7 +589,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -509,7 +608,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -534,20 +632,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -565,6 +657,23 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -608,114 +717,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -729,7 +730,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -741,7 +741,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3C557224-34BA-4452-966C-C54163D8158E}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -759,18 +759,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>444682</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1445623</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Responsable">
@@ -793,10 +793,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -847,8 +847,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="DATA 1">
@@ -871,10 +871,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -921,12 +921,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>368482</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Situación 1">
@@ -949,10 +949,10 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
             <xdr:cNvSpPr>
               <a:spLocks noTextEdit="1"/>
             </xdr:cNvSpPr>
@@ -1041,20 +1041,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAA472F2-80DF-4ED4-AD80-BCF34D3763D1}" name="Tabla1" displayName="Tabla1" ref="B7:I43" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="B7:I43" xr:uid="{98A2188B-B7F8-4A16-B651-38456AF619C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:I43">
-    <sortCondition descending="1" ref="F7:F43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K43" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="B7:K43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K43">
+    <sortCondition ref="B7:B43"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6353A81E-80DD-4737-8B25-37AD53D8F541}" name="DATA" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BCF221E4-5AEE-4F4D-B60C-C796E65E249D}" name="Categoría" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{44A886E0-0AD0-4304-891A-071B015AEC19}" name="Sub-Categoría" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A97C36EC-26F8-42DC-A9C5-31A8A83EE4F9}" name="Situación" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4906EEEA-8BCA-410D-B90B-B41EBB821EBA}" name="Fecha Actualización" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{8E854FA0-1F7A-48B5-ACE9-697338EAFD6F}" name="Responsable" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1D644234-12A5-4B86-84F8-0E9BEFBBDD41}" name="Observación 1" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E459B611-A5E8-47BF-B60D-C19E89292478}" name="Observación 2" dataDxfId="4"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1155,7 +1157,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1356,841 +1358,1045 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C951C08C-CEBF-4D81-8E38-C38F1112DDCC}">
-  <dimension ref="B2:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8">
         <v>44137</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K8" s="15">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F9" s="8">
         <v>44137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K9" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="F10" s="8">
         <v>44137</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="K10" s="13">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F11" s="8">
         <v>44137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>44129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8">
-        <v>44137</v>
+        <v>44129</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E14" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8">
-        <v>44137</v>
+        <v>44106</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F16" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F17" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F19" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F20" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="11"/>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F22" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F23" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K23" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F24" s="8">
-        <v>44134</v>
+        <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F25" s="8">
-        <v>44129</v>
+        <v>44104</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F26" s="8">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K26" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F27" s="8">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F28" s="8">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K28" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F31" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="8">
+        <v>44137</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="8">
         <v>44129</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="8">
-        <v>44106</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="8">
-        <v>44104</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F34" s="8">
-        <v>44104</v>
+        <v>44129</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F35" s="8">
-        <v>44104</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="11"/>
+        <v>44129</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K35" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F36" s="8">
-        <v>44104</v>
+        <v>44129</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="8">
-        <v>44104</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>44137</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K37" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F38" s="8">
-        <v>44104</v>
+        <v>44137</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F39" s="8">
-        <v>44104</v>
+        <v>44137</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K39" s="16">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" s="8">
-        <v>44104</v>
+        <v>44137</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="K40" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="8">
-        <v>44104</v>
+        <v>44137</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="K41" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E42" s="9" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F42" s="8">
-        <v>44104</v>
+        <v>44137</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K42" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E43" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" s="8">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="13">
+        <v>44138</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E43">
+  <conditionalFormatting sqref="E23:E43 E8:E21">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Trabajando"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0D820-2A6C-4B13-8CCF-3D1322B2BA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DAB6B1-A976-4530-88CE-F5ECC78A7C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
   <si>
     <t>CASEN</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>ConsTotalDelitos2.xlsx</t>
+  </si>
+  <si>
+    <t>Luis, Ian</t>
+  </si>
+  <si>
+    <t>Forestal:Terminado</t>
+  </si>
+  <si>
+    <t>Forestal - Incendio</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-SALUD/tree/master/BD%20Enfermedades/Cáncer%20de%20Cuello%20Uterino</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1053,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K43" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="B7:K43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K43">
-    <sortCondition ref="B7:B43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K44" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="B7:K44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K44">
+    <sortCondition ref="B7:B44"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="15"/>
@@ -1105,7 +1117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1157,7 +1169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1359,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1452,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1516,27 +1528,27 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="8">
-        <v>44129</v>
+        <v>44138</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1547,10 +1559,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>33</v>
@@ -1570,29 +1582,29 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="8">
-        <v>44106</v>
+        <v>44129</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1603,16 +1615,16 @@
         <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="8">
-        <v>44104</v>
+        <v>44106</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>80</v>
@@ -1631,10 +1643,10 @@
         <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>33</v>
@@ -1659,10 +1671,10 @@
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>33</v>
@@ -1682,15 +1694,15 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
@@ -1699,7 +1711,7 @@
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1710,15 +1722,15 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>33</v>
@@ -1727,7 +1739,7 @@
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1746,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>33</v>
@@ -1766,7 +1778,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>33</v>
@@ -1794,15 +1806,15 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>33</v>
@@ -1822,7 +1834,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>33</v>
@@ -1855,9 +1867,11 @@
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="9" t="s">
         <v>33</v>
       </c>
@@ -1881,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="9" t="s">
@@ -1904,51 +1918,49 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F26" s="8">
-        <v>44137</v>
+        <v>44104</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
+      <c r="J26" t="s">
+        <v>89</v>
+      </c>
       <c r="K26" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F27" s="8">
         <v>44137</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
       <c r="K27" s="13">
         <v>44138</v>
       </c>
@@ -1958,11 +1970,13 @@
         <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E28" s="9" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F28" s="8">
         <v>44137</v>
@@ -1972,6 +1986,9 @@
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
+      <c r="J28" t="s">
+        <v>96</v>
+      </c>
       <c r="K28" s="13">
         <v>44138</v>
       </c>
@@ -1981,25 +1998,20 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F29" s="8">
         <v>44137</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" t="s">
-        <v>96</v>
-      </c>
+      <c r="I29" s="11"/>
       <c r="K29" s="13">
         <v>44138</v>
       </c>
@@ -2008,29 +2020,25 @@
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="9" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F30" s="8">
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
@@ -2040,21 +2048,29 @@
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="C31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="8">
         <v>44137</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2065,67 +2081,63 @@
         <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="8">
         <v>44137</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="E33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="8">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
         <v>33</v>
       </c>
@@ -2133,38 +2145,40 @@
         <v>44129</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="8">
         <v>44129</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="G35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K35" s="13">
         <v>44138</v>
@@ -2175,7 +2189,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="9" t="s">
@@ -2184,13 +2198,11 @@
       <c r="F36" s="8">
         <v>44129</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="11"/>
       <c r="J36" t="s">
         <v>96</v>
       </c>
@@ -2198,29 +2210,30 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F37" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I37" s="11"/>
+        <v>44129</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s">
+        <v>96</v>
+      </c>
       <c r="K37" s="13">
         <v>44138</v>
       </c>
@@ -2230,76 +2243,81 @@
         <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F38" s="8">
         <v>44137</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="11"/>
+      <c r="G38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I38" s="11"/>
-      <c r="J38" t="s">
-        <v>84</v>
-      </c>
       <c r="K38" s="13">
         <v>44138</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F39" s="8">
         <v>44137</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="K39" s="16">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F40" s="8">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
-      <c r="K40" s="13">
+      <c r="J40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="16">
         <v>44138</v>
       </c>
     </row>
@@ -2308,7 +2326,7 @@
         <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>28</v>
@@ -2333,13 +2351,13 @@
         <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F42" s="8">
         <v>44137</v>
@@ -2353,36 +2371,61 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F43" s="8">
-        <v>44134</v>
+        <v>44137</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
-      <c r="J43" t="s">
+      <c r="K43" s="13">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="8">
+        <v>44134</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" t="s">
         <v>87</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>44138</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E23:E43 E8:E21">
+  <conditionalFormatting sqref="E24:E44 E8:E22">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
@@ -2396,7 +2439,7 @@
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E23">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DAB6B1-A976-4530-88CE-F5ECC78A7C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB80E4-0C5C-4123-AC57-E8EE274A4ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>CASEN</t>
   </si>
   <si>
-    <t>Meteorología del Gob. Chile</t>
-  </si>
-  <si>
     <t>Matricula de Parvularios</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Informacion procesos Simces</t>
   </si>
   <si>
-    <t>Diseño Global</t>
-  </si>
-  <si>
     <t>Proyectos GEF</t>
   </si>
   <si>
@@ -192,18 +186,9 @@
     <t>CAF.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve"> SALUD_FINAL1.xlsx  SALUD_FINAL2.xlsx</t>
-  </si>
-  <si>
-    <t>Enfermedades</t>
-  </si>
-  <si>
     <t>CLIMA_FINAL.xlsx</t>
   </si>
   <si>
-    <t>Clima</t>
-  </si>
-  <si>
     <t>Hector Luis</t>
   </si>
   <si>
@@ -285,12 +270,6 @@
     <t>No Aplica</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Sin Información</t>
-  </si>
-  <si>
     <t>Ministerio Trabajo Chile</t>
   </si>
   <si>
@@ -327,15 +306,9 @@
     <t>https://github.com/Sud-Austral/DATA-GLOBAL/raw/master/DataProyectoGT.xlsx</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/DATA-AGRO/raw/master/CLIMATOL%C3%93GICO-24-10-2020.xlsx</t>
-  </si>
-  <si>
     <t>https://github.com/Sud-Austral/DATA-GLOBAL</t>
   </si>
   <si>
-    <t>INSIVUMETH Guatemala</t>
-  </si>
-  <si>
     <t>Christian, Hector</t>
   </si>
   <si>
@@ -361,6 +334,21 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/DATA-SALUD/tree/master/BD%20Enfermedades/Cáncer%20de%20Cuello%20Uterino</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO</t>
+  </si>
+  <si>
+    <t>Crear una carpeta para los diarios</t>
+  </si>
+  <si>
+    <t>INSIVUMEH Guatemala</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO/tree/master/Forestal_Terminado</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GLOBAL/blob/master/Proyectos%20Aprobados%20Green%20Climate%20Fund.xlsx</t>
   </si>
 </sst>
 </file>
@@ -468,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -502,7 +490,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -511,86 +498,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -748,6 +655,86 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1053,20 +1040,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K44" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="B7:K44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K44">
-    <sortCondition ref="B7:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K40" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
+    <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1371,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K44"/>
+  <dimension ref="B2:K40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,128 +1386,140 @@
     <row r="5" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J7" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F8" s="8">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="15">
-        <v>44138</v>
+        <v>89</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="13">
+        <v>44107</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F9" s="8">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="I9" s="11"/>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
       <c r="K9" s="13">
         <v>44138</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
       <c r="K10" s="13">
-        <v>44107</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
-        <v>44137</v>
+        <v>44129</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
@@ -1528,27 +1527,27 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8">
-        <v>44138</v>
+        <v>44129</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1556,55 +1555,55 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="8">
-        <v>44129</v>
+        <v>44106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="8">
-        <v>44129</v>
+        <v>44104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1612,27 +1611,27 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="8">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
@@ -1640,83 +1639,83 @@
     </row>
     <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8">
         <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="8">
         <v>44104</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8">
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
@@ -1724,55 +1723,55 @@
     </row>
     <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8">
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8">
         <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
@@ -1780,83 +1779,81 @@
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8">
         <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8">
         <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
@@ -1864,27 +1861,25 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="8">
         <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
@@ -1892,25 +1887,27 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="9" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8">
-        <v>44104</v>
+        <v>44139</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
@@ -1918,25 +1915,25 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="8">
-        <v>44104</v>
+        <v>44139</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
@@ -1944,50 +1941,59 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F27" s="8">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
       <c r="K27" s="13">
         <v>44138</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F28" s="8">
         <v>44137</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
@@ -1995,82 +2001,79 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8">
         <v>44137</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
       <c r="K29" s="13">
         <v>44138</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E30" s="9" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F30" s="8">
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F31" s="8">
-        <v>44137</v>
+        <v>44129</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2078,378 +2081,273 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E32" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>44129</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F33" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>44129</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="11" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="8">
         <v>44129</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="11"/>
+        <v>44139</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="I35" s="11"/>
-      <c r="J35" t="s">
-        <v>88</v>
-      </c>
       <c r="K35" s="13">
         <v>44138</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="8">
-        <v>44129</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="11" t="s">
-        <v>75</v>
-      </c>
+        <v>44137</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E37" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" s="8">
-        <v>44129</v>
+        <v>44139</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="13">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="K37" s="15">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>72</v>
-      </c>
+        <v>44139</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="K38" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44137</v>
+        <v>44139</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
-      <c r="J39" t="s">
-        <v>84</v>
-      </c>
       <c r="K39" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" s="8">
-        <v>44138</v>
+        <v>44134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>106</v>
-      </c>
-      <c r="K40" s="16">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="K41" s="13">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="K42" s="13">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="8">
-        <v>44137</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="K43" s="13">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="8">
-        <v>44134</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="13">
+        <v>80</v>
+      </c>
+      <c r="K40" s="13">
         <v>44138</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E44 E8:E22">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="E8:E20 E22:E40">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BB80E4-0C5C-4123-AC57-E8EE274A4ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8294F-877F-4480-852E-1FD13691CEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>CAF.xlsx</t>
   </si>
   <si>
-    <t>CLIMA_FINAL.xlsx</t>
-  </si>
-  <si>
     <t>Hector Luis</t>
   </si>
   <si>
@@ -336,12 +333,6 @@
     <t>https://github.com/Sud-Austral/DATA-SALUD/tree/master/BD%20Enfermedades/Cáncer%20de%20Cuello%20Uterino</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/DATA-AGRO</t>
-  </si>
-  <si>
-    <t>Crear una carpeta para los diarios</t>
-  </si>
-  <si>
     <t>INSIVUMEH Guatemala</t>
   </si>
   <si>
@@ -349,6 +340,15 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/DATA-GLOBAL/blob/master/Proyectos%20Aprobados%20Green%20Climate%20Fund.xlsx</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO/tree/master/climatologico_diario</t>
+  </si>
+  <si>
+    <t>climatologico_diario</t>
+  </si>
+  <si>
+    <t>El nombre del archivo más la fecha  día-mes-año</t>
   </si>
 </sst>
 </file>
@@ -1360,9 +1360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,49 +1389,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="J7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="8">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1441,29 +1441,29 @@
     </row>
     <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8">
+        <v>44141</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44139</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1486,12 +1486,12 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -1519,7 +1519,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1547,7 +1547,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1570,12 +1570,12 @@
         <v>44106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1598,12 +1598,12 @@
         <v>44104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1626,12 +1626,12 @@
         <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1654,12 +1654,12 @@
         <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
@@ -1687,7 +1687,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1710,12 +1710,12 @@
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1738,12 +1738,12 @@
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -1766,12 +1766,12 @@
         <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -1794,12 +1794,12 @@
         <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -1822,12 +1822,12 @@
         <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -1848,12 +1848,12 @@
         <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1874,12 +1874,12 @@
         <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
@@ -1887,27 +1887,27 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="8">
+        <v>44141</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="8">
-        <v>44139</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>28</v>
@@ -1928,12 +1928,12 @@
         <v>44139</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
@@ -1941,17 +1941,17 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="8">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>36</v>
@@ -1961,7 +1961,7 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27" s="13">
         <v>44138</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>45</v>
@@ -1993,7 +1993,7 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
@@ -2017,7 +2017,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="13">
         <v>44138</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -2040,22 +2040,22 @@
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2068,12 +2068,12 @@
         <v>44129</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
@@ -2101,15 +2101,15 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>29</v>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="I35" s="11"/>
       <c r="K35" s="13">
@@ -2190,7 +2190,7 @@
     </row>
     <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>40</v>
@@ -2210,7 +2210,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -2238,7 +2238,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" s="15">
         <v>44138</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>5</v>
@@ -2258,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -2283,7 +2283,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44139</v>
+        <v>44141</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2296,13 +2296,13 @@
     </row>
     <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>31</v>
@@ -2311,12 +2311,12 @@
         <v>44134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40" s="13">
         <v>44138</v>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8294F-877F-4480-852E-1FD13691CEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F64FF9-41CF-4D7B-B041-90A47370749D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="SegmentaciónDeDatos_Responsable">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Situación">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>CASEN</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Ministerio Trabajo Chile</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/DATA-MUNI/raw/master/MunicipioFinal.xlsx</t>
-  </si>
-  <si>
     <t>Link GitHub</t>
   </si>
   <si>
@@ -349,13 +346,64 @@
   </si>
   <si>
     <t>El nombre del archivo más la fecha  día-mes-año</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-MUNI/blob/master/MunicipioFinal.xlsx</t>
+  </si>
+  <si>
+    <t>Observatorio de Mujeres</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-AGRO/tree/master/tablas_insivumeh</t>
+  </si>
+  <si>
+    <t>DATAGENERO</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-GENERO/blob/main/observatorio_mujer_final.xlsx</t>
+  </si>
+  <si>
+    <t>DATATRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>DATAHIDRO</t>
+  </si>
+  <si>
+    <t>https://www.portaltransparencia.cl/PortalPdT/web/guest/opendata</t>
+  </si>
+  <si>
+    <t>https://www.infoprobidad.cl/DatosAbiertos/Catalogos</t>
+  </si>
+  <si>
+    <t>https://www.sernac.cl/portal/619/w3-propertyvalue-65861.html#recuadros_articulo_1804_group_pvid_65476</t>
+  </si>
+  <si>
+    <t>Portal de Transparencia</t>
+  </si>
+  <si>
+    <t>Infoprobidad</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/FNE/index.php</t>
+  </si>
+  <si>
+    <t>https://dga.mop.gob.cl/productosyservicios/informacionhidrologica/Paginas/default.aspx</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/BNAConsultas/reportes</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/dgasat/pages/dgasat_param/dgasat_param.jsp?param=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +435,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -453,10 +509,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -490,14 +547,164 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -658,86 +865,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
@@ -758,13 +885,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444682</xdr:colOff>
+      <xdr:colOff>277995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1445623</xdr:colOff>
+      <xdr:colOff>897936</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -842,7 +969,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>709613</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -914,13 +1041,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:colOff>854393</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368482</xdr:colOff>
+      <xdr:colOff>201795</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
@@ -1040,20 +1167,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K40" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1358,26 +1485,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K40"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1410,31 +1536,34 @@
         <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8">
-        <v>44141</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>44144</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
       <c r="K8" s="13">
         <v>44107</v>
       </c>
@@ -1447,7 +1576,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -1459,11 +1588,11 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
@@ -1474,10 +1603,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1486,12 +1615,12 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
@@ -1502,10 +1631,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -1519,7 +1648,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
@@ -1533,7 +1662,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1547,7 +1676,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1575,7 +1704,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
@@ -1603,7 +1732,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1631,7 +1760,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
@@ -1659,7 +1788,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
@@ -1687,7 +1816,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
@@ -1715,7 +1844,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
@@ -1743,7 +1872,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
@@ -1771,7 +1900,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
@@ -1799,7 +1928,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
@@ -1827,7 +1956,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
@@ -1853,7 +1982,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
@@ -1879,7 +2008,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
@@ -1899,7 +2028,7 @@
         <v>70</v>
       </c>
       <c r="F25" s="8">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>68</v>
@@ -1907,7 +2036,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
@@ -1933,7 +2062,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
@@ -1951,7 +2080,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="8">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>36</v>
@@ -1961,7 +2090,7 @@
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K27" s="13">
         <v>44138</v>
@@ -1993,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
@@ -2004,7 +2133,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
@@ -2017,7 +2146,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K29" s="13">
         <v>44138</v>
@@ -2043,11 +2172,11 @@
         <v>73</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
@@ -2073,7 +2202,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2101,7 +2230,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
@@ -2127,7 +2256,7 @@
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
@@ -2155,7 +2284,7 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
@@ -2175,7 +2304,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>65</v>
@@ -2210,7 +2339,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
@@ -2238,9 +2367,9 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="15">
+        <v>95</v>
+      </c>
+      <c r="K37" s="26">
         <v>44138</v>
       </c>
     </row>
@@ -2258,7 +2387,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
@@ -2283,7 +2412,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44141</v>
+        <v>44144</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2316,51 +2445,260 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40" s="13">
         <v>44138</v>
       </c>
     </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44141</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="18">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="8">
+        <v>44144</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="21">
+        <v>44144</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="8">
+        <v>44144</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="21">
+        <v>44144</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="8">
+        <v>44144</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="21">
+        <v>44144</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="8">
+        <v>44144</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18">
+        <v>44147</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E8:E20 E22:E40">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+  <conditionalFormatting sqref="E8:E20 E22:E41">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E48">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Trabajando"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Listo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H42" r:id="rId1" xr:uid="{1FA1E704-1887-4469-A96A-7006D6C63F89}"/>
+    <hyperlink ref="H44" r:id="rId2" location="recuadros_articulo_1804_group_pvid_65476" xr:uid="{FE0A6253-BFDA-4B15-9D00-09FF5FF4548F}"/>
+    <hyperlink ref="H45" r:id="rId3" xr:uid="{76A39E55-6B63-4708-9913-A47E80136B0E}"/>
+    <hyperlink ref="H46" r:id="rId4" xr:uid="{4FECC66B-6D76-4868-B8C9-964C4175092D}"/>
+    <hyperlink ref="H48" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId9"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F64FF9-41CF-4D7B-B041-90A47370749D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2CB05-97FA-4089-91E7-7931250C5682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -561,9 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -585,126 +582,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -862,6 +739,126 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1167,20 +1164,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trabajando"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1489,7 +1492,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1545,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2028,10 +2031,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -2042,7 +2045,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>36</v>
@@ -2096,7 +2099,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>65</v>
@@ -2317,7 +2320,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +2372,7 @@
       <c r="J37" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="25">
         <v>44138</v>
       </c>
     </row>
@@ -2387,7 +2390,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
@@ -2412,7 +2415,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2423,7 +2426,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>68</v>
@@ -2514,16 +2517,16 @@
       <c r="E43" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="21">
-        <v>44144</v>
-      </c>
-      <c r="G43" s="22" t="s">
+      <c r="F43" s="8">
+        <v>44145</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="17"/>
       <c r="K43" s="18">
         <v>44144</v>
@@ -2539,10 +2542,10 @@
         <v>38</v>
       </c>
       <c r="F44" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="23" t="s">
         <v>112</v>
       </c>
       <c r="I44" s="14"/>
@@ -2560,8 +2563,8 @@
       <c r="E45" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="21">
-        <v>44144</v>
+      <c r="F45" s="8">
+        <v>44145</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="19" t="s">
@@ -2583,7 +2586,7 @@
         <v>38</v>
       </c>
       <c r="F46" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="19" t="s">
@@ -2604,20 +2607,20 @@
       <c r="E47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="21">
-        <v>44144</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="25" t="s">
+      <c r="F47" s="8">
+        <v>44145</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="17"/>
       <c r="K47" s="18">
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
@@ -2627,10 +2630,10 @@
         <v>38</v>
       </c>
       <c r="F48" s="8">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="23" t="s">
         <v>118</v>
       </c>
       <c r="I48" s="14"/>
@@ -2641,44 +2644,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE2CB05-97FA-4089-91E7-7931250C5682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E16D1-1892-4975-96B4-8F606298A0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
   <si>
     <t>CASEN</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Fecha Actualización</t>
   </si>
   <si>
-    <t>Christian, Victor, Ian</t>
-  </si>
-  <si>
     <t>En sub-categoría son los nombres de origen</t>
   </si>
   <si>
@@ -397,6 +394,12 @@
   </si>
   <si>
     <t>https://snia.mop.gob.cl/dgasat/pages/dgasat_param/dgasat_param.jsp?param=1</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>Christian, Victor</t>
   </si>
 </sst>
 </file>
@@ -429,12 +432,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,7 +1173,7 @@
   <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Trabajando"/>
+        <filter val="Revisión"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1492,7 +1497,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1544,10 @@
         <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1550,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
@@ -1560,12 +1565,12 @@
         <v>44144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="13">
         <v>44107</v>
@@ -1579,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -1591,11 +1596,11 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
@@ -1606,10 +1611,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1618,12 +1623,12 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
@@ -1634,10 +1639,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -1651,7 +1656,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
@@ -1665,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1679,7 +1684,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1702,12 +1707,12 @@
         <v>44106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
@@ -1730,12 +1735,12 @@
         <v>44104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1758,12 +1763,12 @@
         <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
@@ -1786,12 +1791,12 @@
         <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
@@ -1819,7 +1824,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
@@ -1842,12 +1847,12 @@
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
@@ -1870,12 +1875,12 @@
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
@@ -1898,12 +1903,12 @@
         <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
@@ -1926,12 +1931,12 @@
         <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
@@ -1954,12 +1959,12 @@
         <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
@@ -1980,12 +1985,12 @@
         <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
@@ -2006,12 +2011,12 @@
         <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
@@ -2025,21 +2030,21 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F25" s="8">
         <v>44145</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
@@ -2060,18 +2065,18 @@
         <v>44139</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2080,20 +2085,20 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K27" s="13">
         <v>44138</v>
@@ -2125,7 +2130,7 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
@@ -2136,7 +2141,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
@@ -2149,7 +2154,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" s="13">
         <v>44138</v>
@@ -2160,10 +2165,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -2172,14 +2177,14 @@
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
@@ -2200,12 +2205,12 @@
         <v>44129</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2233,7 +2238,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
@@ -2255,11 +2260,11 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
@@ -2287,13 +2292,13 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2307,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="I35" s="11"/>
       <c r="K35" s="13">
@@ -2342,7 +2347,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
@@ -2370,13 +2375,13 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K37" s="25">
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
@@ -2401,7 +2406,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2431,7 +2436,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -2443,12 +2448,12 @@
         <v>44134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K40" s="13">
         <v>44138</v>
@@ -2456,10 +2461,10 @@
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="9" t="s">
@@ -2469,36 +2474,36 @@
         <v>44141</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="18">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="18">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="17"/>
@@ -2506,35 +2511,37 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="22"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="K43" s="18">
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2542,11 +2549,11 @@
         <v>38</v>
       </c>
       <c r="F44" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="17"/>
@@ -2554,9 +2561,9 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2564,11 +2571,11 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="17"/>
@@ -2576,9 +2583,9 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2586,11 +2593,11 @@
         <v>38</v>
       </c>
       <c r="F46" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="17"/>
@@ -2598,9 +2605,9 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2608,11 +2615,11 @@
         <v>38</v>
       </c>
       <c r="F47" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="17"/>
@@ -2620,9 +2627,9 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2630,11 +2637,11 @@
         <v>38</v>
       </c>
       <c r="F48" s="8">
-        <v>44145</v>
+        <v>44115</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="17"/>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E16D1-1892-4975-96B4-8F606298A0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC2728B-CB0C-44D3-9D86-AED9ABBB48A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Revisión"/>
+        <filter val="Trabajando"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1497,7 +1497,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2076,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>69</v>
       </c>
       <c r="F27" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>72</v>
@@ -2298,7 +2298,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>119</v>
@@ -2381,7 +2381,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>38</v>
       </c>
       <c r="F38" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
@@ -2406,7 +2406,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2485,7 +2485,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>67</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F43" s="8">
         <v>44115</v>
@@ -2539,7 +2539,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>107</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="F44" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="23" t="s">
@@ -2561,7 +2561,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>108</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="19" t="s">
@@ -2583,7 +2583,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>108</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="F46" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="19" t="s">
@@ -2605,7 +2605,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>108</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="24" t="s">
@@ -2627,7 +2627,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>108</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>38</v>
       </c>
       <c r="F48" s="8">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="23" t="s">

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC2728B-CB0C-44D3-9D86-AED9ABBB48A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D138C-11B9-4F70-91A0-E5044CB68FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
   <si>
     <t>CASEN</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Archivo xlx</t>
   </si>
   <si>
-    <t>Revisión</t>
-  </si>
-  <si>
     <t>BD Wikipedia</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>Christian, Victor</t>
+  </si>
+  <si>
+    <t>MOP - Chile</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -573,9 +573,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1497,7 +1494,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,10 +1541,10 @@
         <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1552,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
@@ -1565,12 +1562,12 @@
         <v>44144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" s="13">
         <v>44107</v>
@@ -1584,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -1596,11 +1593,11 @@
         <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="13">
         <v>44138</v>
@@ -1611,10 +1608,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -1623,12 +1620,12 @@
         <v>44138</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="13">
         <v>44138</v>
@@ -1639,10 +1636,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -1656,7 +1653,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="13">
         <v>44138</v>
@@ -1670,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -1684,7 +1681,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" s="13">
         <v>44138</v>
@@ -1707,12 +1704,12 @@
         <v>44106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="13">
         <v>44138</v>
@@ -1735,12 +1732,12 @@
         <v>44104</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="13">
         <v>44138</v>
@@ -1763,12 +1760,12 @@
         <v>44104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="13">
         <v>44138</v>
@@ -1791,12 +1788,12 @@
         <v>44104</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="13">
         <v>44138</v>
@@ -1824,7 +1821,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="13">
         <v>44138</v>
@@ -1847,12 +1844,12 @@
         <v>44104</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="13">
         <v>44138</v>
@@ -1875,12 +1872,12 @@
         <v>44104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="13">
         <v>44138</v>
@@ -1903,12 +1900,12 @@
         <v>44104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="13">
         <v>44138</v>
@@ -1931,12 +1928,12 @@
         <v>44104</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="13">
         <v>44138</v>
@@ -1959,12 +1956,12 @@
         <v>44104</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="13">
         <v>44138</v>
@@ -1985,12 +1982,12 @@
         <v>44104</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="13">
         <v>44138</v>
@@ -2011,12 +2008,12 @@
         <v>44104</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="13">
         <v>44138</v>
@@ -2039,12 +2036,12 @@
         <v>44145</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" s="13">
         <v>44138</v>
@@ -2070,7 +2067,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="13">
         <v>44138</v>
@@ -2085,20 +2082,20 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="9" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F27" s="8">
         <v>44147</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K27" s="13">
         <v>44138</v>
@@ -2130,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K28" s="13">
         <v>44138</v>
@@ -2141,7 +2138,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
@@ -2154,7 +2151,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" s="13">
         <v>44138</v>
@@ -2165,10 +2162,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -2177,14 +2174,14 @@
         <v>44137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="13">
         <v>44138</v>
@@ -2205,12 +2202,12 @@
         <v>44129</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" s="13">
         <v>44138</v>
@@ -2238,7 +2235,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K32" s="13">
         <v>44138</v>
@@ -2264,7 +2261,7 @@
       </c>
       <c r="I33" s="11"/>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K33" s="13">
         <v>44138</v>
@@ -2292,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K34" s="13">
         <v>44138</v>
@@ -2312,10 +2309,10 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>65</v>
@@ -2347,7 +2344,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" s="13">
         <v>44138</v>
@@ -2375,9 +2372,9 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" t="s">
-        <v>94</v>
-      </c>
-      <c r="K37" s="25">
+        <v>93</v>
+      </c>
+      <c r="K37" s="24">
         <v>44138</v>
       </c>
     </row>
@@ -2392,16 +2389,19 @@
         <v>26</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F38" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
       <c r="K38" s="13">
         <v>44138</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
@@ -2436,7 +2436,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>49</v>
@@ -2453,7 +2453,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K40" s="13">
         <v>44138</v>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="9" t="s">
@@ -2474,12 +2474,12 @@
         <v>44141</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K41" s="18">
         <v>44138</v>
@@ -2487,23 +2487,23 @@
     </row>
     <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="17"/>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="20" t="s">
@@ -2529,11 +2529,11 @@
         <v>36</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" s="18">
         <v>44144</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2549,11 +2549,11 @@
         <v>38</v>
       </c>
       <c r="F44" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="17"/>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2571,11 +2571,11 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="17"/>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="46" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2593,11 +2593,11 @@
         <v>38</v>
       </c>
       <c r="F46" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="17"/>
@@ -2607,19 +2607,23 @@
     </row>
     <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="8">
-        <v>44147</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="24" t="s">
-        <v>116</v>
+        <v>44148</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="17"/>
@@ -2629,7 +2633,7 @@
     </row>
     <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2637,11 +2641,11 @@
         <v>38</v>
       </c>
       <c r="F48" s="8">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="17"/>
@@ -2698,17 +2702,18 @@
     <hyperlink ref="H45" r:id="rId3" xr:uid="{76A39E55-6B63-4708-9913-A47E80136B0E}"/>
     <hyperlink ref="H46" r:id="rId4" xr:uid="{4FECC66B-6D76-4868-B8C9-964C4175092D}"/>
     <hyperlink ref="H48" r:id="rId5" xr:uid="{6E466A8E-CADA-4D51-9C89-52148C26FEBC}"/>
+    <hyperlink ref="H47" r:id="rId6" xr:uid="{2F9E08A6-A8E1-40AD-AB52-04666D870A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId9"/>
+        <x14:slicer r:id="rId10"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D138C-11B9-4F70-91A0-E5044CB68FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41729FFE-6656-43BE-BAE8-77665DCEE7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
   <si>
     <t>CASEN</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>MOP - Chile</t>
+  </si>
+  <si>
+    <t>SENAC</t>
+  </si>
+  <si>
+    <t>Hector Edwin</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-SALUD/tree/master/BD%20Enfermedades/consolidado%20final%20VIH</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA/tree/main/SERNAC</t>
   </si>
 </sst>
 </file>
@@ -586,6 +598,126 @@
   <dxfs count="21">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -741,126 +873,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1166,26 +1178,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Trabajando"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="12"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1493,8 +1499,8 @@
   <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1715,7 +1721,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2261,9 @@
       <c r="F33" s="8">
         <v>44129</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H33" s="11" t="s">
         <v>68</v>
       </c>
@@ -2267,7 +2275,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2322,7 +2330,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2350,7 +2358,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2417,21 +2425,24 @@
         <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F39" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
+      <c r="J39" s="17" t="s">
+        <v>122</v>
+      </c>
       <c r="K39" s="13">
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v>38</v>
       </c>
       <c r="F42" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>67</v>
@@ -2506,12 +2517,11 @@
         <v>108</v>
       </c>
       <c r="I42" s="14"/>
-      <c r="J42" s="17"/>
       <c r="K42" s="18">
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2543,20 +2553,26 @@
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F44" s="8">
-        <v>44148</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>44151</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="H44" s="23" t="s">
         <v>110</v>
       </c>
       <c r="I44" s="14"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>123</v>
+      </c>
       <c r="K44" s="18">
         <v>44144</v>
       </c>
@@ -2571,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="19" t="s">
@@ -2593,7 +2609,7 @@
         <v>38</v>
       </c>
       <c r="F46" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="19" t="s">
@@ -2617,7 +2633,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>36</v>
@@ -2641,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="F48" s="8">
-        <v>44148</v>
+        <v>44151</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="23" t="s">
@@ -2655,44 +2671,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41729FFE-6656-43BE-BAE8-77665DCEE7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01300DCA-1287-4D6D-8072-C0E09A120FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>CASEN</t>
   </si>
@@ -412,6 +412,21 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA/tree/main/SERNAC</t>
+  </si>
+  <si>
+    <t>Se extrajeron los datos que se pudo pero los demas están en imagen</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-TRANSPARENCIA/tree/main/Archivos%20csv%20Portal%20Transparencia</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-HIDRO/tree/master/Boletines%20hidrol%C3%B3gicos%20Mensuales</t>
+  </si>
+  <si>
+    <t>Hubo problemas con el captcha</t>
+  </si>
+  <si>
+    <t>Sin Resolver</t>
   </si>
 </sst>
 </file>
@@ -530,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -590,12 +605,145 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1178,20 +1326,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="25"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1499,8 +1647,8 @@
   <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,10 +2653,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F42" s="8">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>67</v>
@@ -2517,6 +2665,9 @@
         <v>108</v>
       </c>
       <c r="I42" s="14"/>
+      <c r="J42" t="s">
+        <v>125</v>
+      </c>
       <c r="K42" s="18">
         <v>44144</v>
       </c>
@@ -2587,9 +2738,11 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44151</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>44153</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>113</v>
       </c>
@@ -2599,24 +2752,30 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F46" s="8">
-        <v>44151</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>44153</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H46" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I46" s="14"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="K46" s="18">
         <v>44145</v>
       </c>
@@ -2630,10 +2789,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="20" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F47" s="8">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>36</v>
@@ -2641,7 +2800,9 @@
       <c r="H47" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I47" s="22"/>
+      <c r="I47" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="J47" s="17"/>
       <c r="K47" s="18">
         <v>44146</v>
@@ -2654,16 +2815,18 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="20" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F48" s="8">
-        <v>44151</v>
+        <v>44153</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="14"/>
+      <c r="I48" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="J48" s="17"/>
       <c r="K48" s="18">
         <v>44147</v>
@@ -2671,45 +2834,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Sin Información"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Sin Resolver"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01300DCA-1287-4D6D-8072-C0E09A120FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF13FCA-2BD1-4C10-ABB9-F4687C1D085D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,257 +613,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1021,6 +771,136 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1326,20 +1206,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trabajando"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATA" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoría" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Categoría" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Situación" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fecha Actualización" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Observación 1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Observación 2" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Link GitHub"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Fecha Requerimiento"/>
   </tableColumns>
@@ -1647,8 +1533,8 @@
   <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1587,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1613,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1643,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1671,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1813,7 +1699,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1841,7 +1727,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1755,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1897,7 +1783,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1811,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1953,7 +1839,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1981,7 +1867,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2009,7 +1895,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +1923,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -2065,7 +1951,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2093,7 +1979,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2007,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2147,7 +2033,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2173,7 +2059,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2087,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2113,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2141,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2287,7 +2173,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,7 +2197,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2341,7 +2227,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2367,7 +2253,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2395,7 +2281,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2423,7 +2309,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44151</v>
+        <v>44154</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2478,7 +2364,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2506,7 +2392,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2534,7 +2420,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2562,7 +2448,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2590,7 +2476,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2618,7 +2504,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -2644,7 +2530,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
@@ -2672,7 +2558,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2700,7 +2586,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
@@ -2738,7 +2624,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>36</v>
@@ -2752,7 +2638,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>107</v>
       </c>
@@ -2780,7 +2666,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2808,7 +2694,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>107</v>
       </c>
@@ -2834,49 +2720,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E20 E22:E41">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E48">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Trabajando"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Listo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Sin Información"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Sin Resolver"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF13FCA-2BD1-4C10-ABB9-F4687C1D085D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFE041-FF25-40D9-9ABD-4EC6E3613296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B7:K48" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Trabajando"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B7:K48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K40">
     <sortCondition ref="B7:B40"/>
   </sortState>
@@ -1533,8 +1527,8 @@
   <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1613,7 +1607,7 @@
         <v>44107</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1643,7 +1637,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
@@ -1671,7 +1665,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1699,7 +1693,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1721,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1783,7 +1777,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1923,7 +1917,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1951,7 +1945,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -2007,7 +2001,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2027,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2087,7 +2081,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2135,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
@@ -2173,7 +2167,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2197,7 +2191,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2221,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2351,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2364,7 +2358,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2420,7 +2414,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
@@ -2476,7 +2470,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -2530,7 +2524,7 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>106</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>106</v>
       </c>
@@ -2624,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44154</v>
+        <v>44158</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>36</v>
@@ -2638,7 +2632,7 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>107</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>107</v>
       </c>
@@ -2694,7 +2688,7 @@
         <v>44146</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>107</v>
       </c>

--- a/Lista de Archivos DATA.xlsx
+++ b/Lista de Archivos DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFE041-FF25-40D9-9ABD-4EC6E3613296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC70D7B-AEDF-402A-B7E5-E21CDE2097B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,8 +1527,8 @@
   <dimension ref="B2:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="F35" s="8">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>118</v>
@@ -2618,7 +2618,7 @@
         <v>38</v>
       </c>
       <c r="F45" s="8">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>36</v>
